--- a/biology/Botanique/Parc_Eglantyne-Jebb/Parc_Eglantyne-Jebb.xlsx
+++ b/biology/Botanique/Parc_Eglantyne-Jebb/Parc_Eglantyne-Jebb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Eglantyne-Jebb, appelé jusqu'en 2021 parc des Acacias, est un parc public de 9 724 m2, situé dans le quartier des Acacias, à Genève, en Suisse.
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc se situe dans le quartier des Acacias (d'où son nom), à la frontière entre la ville de Genève et la commune de Carouge. Il est délimité par les rues des Acacias, des Épinettes, des Ronzades et des Noirettes.
 </t>
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'origine parcelle industrielle, la parcelle est acquise en 1979 dans la même période que le parc des Evaux et le parc Gourgas par la Ville de Genève pour y créer un parc public, inauguré en 1988 par la plantation d'un robinier.
-Une partie du parc est transformée en 2006 en espace de liberté pour les chiens, inauguré le 20 mai 2006[1].
-En 2021, le parc est rebaptisé Parc Eglantyne-Jebb[2] en hommage à la fondatrice de l'organisation Save the Children, décédée à Genève en 1928. Ce changement de nom intervient dans le cadre du projet 100 Elles, visant à améliorer la visibilité dans l'espace public des femmes ayant marqué l'histoire genevoise[3].
+Une partie du parc est transformée en 2006 en espace de liberté pour les chiens, inauguré le 20 mai 2006.
+En 2021, le parc est rebaptisé Parc Eglantyne-Jebb en hommage à la fondatrice de l'organisation Save the Children, décédée à Genève en 1928. Ce changement de nom intervient dans le cadre du projet 100 Elles, visant à améliorer la visibilité dans l'espace public des femmes ayant marqué l'histoire genevoise.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Contenu du parc</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc est équipé d'une place de jeux, de tables de ping-pong et de pique-nique[4]. Il était équipé d'une rampe pour patins à roulettes. En été, la maison de quartier des Acacias[5] voisine organise de nombreuses manifestations musicales et théâtrales dans le parc.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est équipé d'une place de jeux, de tables de ping-pong et de pique-nique. Il était équipé d'une rampe pour patins à roulettes. En été, la maison de quartier des Acacias voisine organise de nombreuses manifestations musicales et théâtrales dans le parc.
 </t>
         </is>
       </c>
